--- a/Code/Results/Cases/Case_3_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9897804752067562</v>
+        <v>1.030490150665257</v>
       </c>
       <c r="D2">
-        <v>1.008877266148634</v>
+        <v>1.032076269318367</v>
       </c>
       <c r="E2">
-        <v>1.002885495046766</v>
+        <v>1.039721047873346</v>
       </c>
       <c r="F2">
-        <v>1.00379370670862</v>
+        <v>1.049724111409681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03832579636624</v>
+        <v>1.030255399101766</v>
       </c>
       <c r="J2">
-        <v>1.012271206986626</v>
+        <v>1.035631108068005</v>
       </c>
       <c r="K2">
-        <v>1.020214296577613</v>
+        <v>1.03488254408658</v>
       </c>
       <c r="L2">
-        <v>1.014304776186264</v>
+        <v>1.042505431779909</v>
       </c>
       <c r="M2">
-        <v>1.015200440986245</v>
+        <v>1.052480373809751</v>
       </c>
       <c r="N2">
-        <v>1.007638376107962</v>
+        <v>1.015797953245887</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9955392114860597</v>
+        <v>1.031675592545348</v>
       </c>
       <c r="D3">
-        <v>1.012887985685383</v>
+        <v>1.032911225731452</v>
       </c>
       <c r="E3">
-        <v>1.008069427366718</v>
+        <v>1.040848051644135</v>
       </c>
       <c r="F3">
-        <v>1.010036428086772</v>
+        <v>1.051106086446118</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039548075610817</v>
+        <v>1.030432489720505</v>
       </c>
       <c r="J3">
-        <v>1.016152225217229</v>
+        <v>1.036456822177965</v>
       </c>
       <c r="K3">
-        <v>1.023358575921181</v>
+        <v>1.035526127037439</v>
       </c>
       <c r="L3">
-        <v>1.018600089126063</v>
+        <v>1.043441877737671</v>
       </c>
       <c r="M3">
-        <v>1.020542481560928</v>
+        <v>1.053673182614326</v>
       </c>
       <c r="N3">
-        <v>1.008975066572256</v>
+        <v>1.016077635605407</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9991726661762571</v>
+        <v>1.032442305104613</v>
       </c>
       <c r="D4">
-        <v>1.015420624515307</v>
+        <v>1.033450948351937</v>
       </c>
       <c r="E4">
-        <v>1.011346419392906</v>
+        <v>1.04157736297901</v>
       </c>
       <c r="F4">
-        <v>1.013984072316437</v>
+        <v>1.052000810570163</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040307247601149</v>
+        <v>1.0305454780581</v>
       </c>
       <c r="J4">
-        <v>1.018597558940386</v>
+        <v>1.036990271242839</v>
       </c>
       <c r="K4">
-        <v>1.025336431647813</v>
+        <v>1.035941376478102</v>
       </c>
       <c r="L4">
-        <v>1.021309805092331</v>
+        <v>1.044047304442812</v>
       </c>
       <c r="M4">
-        <v>1.023916601536319</v>
+        <v>1.054444973114209</v>
       </c>
       <c r="N4">
-        <v>1.009816607158092</v>
+        <v>1.016258166794103</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000678948079047</v>
+        <v>1.03276454983512</v>
       </c>
       <c r="D5">
-        <v>1.016470960647672</v>
+        <v>1.033677716486172</v>
       </c>
       <c r="E5">
-        <v>1.012706371259103</v>
+        <v>1.041883982381012</v>
       </c>
       <c r="F5">
-        <v>1.015622717301514</v>
+        <v>1.05237707317128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040619028992971</v>
+        <v>1.030592595129303</v>
       </c>
       <c r="J5">
-        <v>1.019610434377676</v>
+        <v>1.037214332440553</v>
       </c>
       <c r="K5">
-        <v>1.026154857863003</v>
+        <v>1.036115662599569</v>
       </c>
       <c r="L5">
-        <v>1.022433006193695</v>
+        <v>1.044301703523165</v>
       </c>
       <c r="M5">
-        <v>1.025316210163522</v>
+        <v>1.054769427047745</v>
       </c>
       <c r="N5">
-        <v>1.010165007949467</v>
+        <v>1.016333956550886</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000930642851029</v>
+        <v>1.032818651437737</v>
       </c>
       <c r="D6">
-        <v>1.016646489690237</v>
+        <v>1.033715784168905</v>
       </c>
       <c r="E6">
-        <v>1.012933698466136</v>
+        <v>1.04193546616241</v>
       </c>
       <c r="F6">
-        <v>1.01589665366294</v>
+        <v>1.052440256456689</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040670952153092</v>
+        <v>1.030600483822878</v>
       </c>
       <c r="J6">
-        <v>1.019779630595173</v>
+        <v>1.037251941558214</v>
       </c>
       <c r="K6">
-        <v>1.026291523357553</v>
+        <v>1.036144909325174</v>
       </c>
       <c r="L6">
-        <v>1.02262068023245</v>
+        <v>1.044344411114732</v>
       </c>
       <c r="M6">
-        <v>1.025550128735555</v>
+        <v>1.05482390394946</v>
       </c>
       <c r="N6">
-        <v>1.010223196344881</v>
+        <v>1.016346675802291</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9991928753014693</v>
+        <v>1.03244661127117</v>
       </c>
       <c r="D7">
-        <v>1.015434714924902</v>
+        <v>1.033453978954086</v>
       </c>
       <c r="E7">
-        <v>1.011364659616133</v>
+        <v>1.041581459974169</v>
       </c>
       <c r="F7">
-        <v>1.014006048948525</v>
+        <v>1.052005837732729</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040311442334782</v>
+        <v>1.030546109144423</v>
       </c>
       <c r="J7">
-        <v>1.018611151710535</v>
+        <v>1.03699326594717</v>
       </c>
       <c r="K7">
-        <v>1.025347418181207</v>
+        <v>1.035943706415942</v>
       </c>
       <c r="L7">
-        <v>1.021324875182626</v>
+        <v>1.044050704214701</v>
       </c>
       <c r="M7">
-        <v>1.023935376194319</v>
+        <v>1.054449308507797</v>
       </c>
       <c r="N7">
-        <v>1.009821283381705</v>
+        <v>1.01625917991498</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.991746513417164</v>
+        <v>1.030890849470345</v>
       </c>
       <c r="D8">
-        <v>1.010246031309392</v>
+        <v>1.032358560884742</v>
       </c>
       <c r="E8">
-        <v>1.004653960443624</v>
+        <v>1.040101911596124</v>
       </c>
       <c r="F8">
-        <v>1.005923119939843</v>
+        <v>1.050191055498615</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03874557752156</v>
+        <v>1.030315579285295</v>
       </c>
       <c r="J8">
-        <v>1.013596871141782</v>
+        <v>1.035910337248063</v>
       </c>
       <c r="K8">
-        <v>1.021288979433628</v>
+        <v>1.035100293063721</v>
       </c>
       <c r="L8">
-        <v>1.015771257769116</v>
+        <v>1.042822015812582</v>
       </c>
       <c r="M8">
-        <v>1.017023452135391</v>
+        <v>1.052883497879407</v>
       </c>
       <c r="N8">
-        <v>1.008095094165783</v>
+        <v>1.015892564885362</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9778653481966487</v>
+        <v>1.028146646806978</v>
       </c>
       <c r="D9">
-        <v>1.000594984583785</v>
+        <v>1.030424062362268</v>
       </c>
       <c r="E9">
-        <v>0.9921963568525782</v>
+        <v>1.037495186451022</v>
       </c>
       <c r="F9">
-        <v>0.9909264311586243</v>
+        <v>1.046996854451491</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035732634208184</v>
+        <v>1.029897089124129</v>
       </c>
       <c r="J9">
-        <v>1.004224702184236</v>
+        <v>1.033995572418792</v>
       </c>
       <c r="K9">
-        <v>1.013678415948312</v>
+        <v>1.033604937502058</v>
       </c>
       <c r="L9">
-        <v>1.005417324409981</v>
+        <v>1.040652894440398</v>
       </c>
       <c r="M9">
-        <v>1.004168456334237</v>
+        <v>1.05012397149613</v>
       </c>
       <c r="N9">
-        <v>1.004863705283786</v>
+        <v>1.015243145251388</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9680258705852367</v>
+        <v>1.026315201053901</v>
       </c>
       <c r="D10">
-        <v>0.9937756328589094</v>
+        <v>1.029131521072317</v>
       </c>
       <c r="E10">
-        <v>0.9834049406354209</v>
+        <v>1.035757562577315</v>
       </c>
       <c r="F10">
-        <v>0.9803450160373225</v>
+        <v>1.044869709922306</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03353705310146</v>
+        <v>1.02960984061626</v>
       </c>
       <c r="J10">
-        <v>0.9975681345937037</v>
+        <v>1.032714618249435</v>
       </c>
       <c r="K10">
-        <v>1.008258187009756</v>
+        <v>1.0326018407536</v>
       </c>
       <c r="L10">
-        <v>0.9980804308662253</v>
+        <v>1.039204027575725</v>
       </c>
       <c r="M10">
-        <v>0.9950784530110287</v>
+        <v>1.048283914543442</v>
       </c>
       <c r="N10">
-        <v>1.002565909818429</v>
+        <v>1.014807897123373</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9636076408139536</v>
+        <v>1.025521666764405</v>
       </c>
       <c r="D11">
-        <v>0.9907204059571708</v>
+        <v>1.028571146679589</v>
       </c>
       <c r="E11">
-        <v>0.9794674615237815</v>
+        <v>1.035005176092133</v>
       </c>
       <c r="F11">
-        <v>0.9756053396937608</v>
+        <v>1.043949149852537</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032537880517145</v>
+        <v>1.02948349877982</v>
       </c>
       <c r="J11">
-        <v>0.9945768646323028</v>
+        <v>1.03215888052797</v>
       </c>
       <c r="K11">
-        <v>1.00581946959041</v>
+        <v>1.032166010490619</v>
       </c>
       <c r="L11">
-        <v>0.9947872649782507</v>
+        <v>1.038575971547479</v>
       </c>
       <c r="M11">
-        <v>0.9910024483656265</v>
+        <v>1.047487032595368</v>
       </c>
       <c r="N11">
-        <v>1.001532862189052</v>
+        <v>1.014618879692115</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9619410354418967</v>
+        <v>1.02522683414516</v>
       </c>
       <c r="D12">
-        <v>0.9895691325337928</v>
+        <v>1.02836289341855</v>
       </c>
       <c r="E12">
-        <v>0.977983806373431</v>
+        <v>1.034725706690316</v>
       </c>
       <c r="F12">
-        <v>0.9738192518403355</v>
+        <v>1.043607286095838</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032159069400278</v>
+        <v>1.029436274884896</v>
       </c>
       <c r="J12">
-        <v>0.9934482647211382</v>
+        <v>1.031952291620383</v>
       </c>
       <c r="K12">
-        <v>1.004898937627317</v>
+        <v>1.032003900051467</v>
       </c>
       <c r="L12">
-        <v>0.9935453166554532</v>
+        <v>1.038342578538069</v>
       </c>
       <c r="M12">
-        <v>0.9894658302669129</v>
+        <v>1.047191013804892</v>
       </c>
       <c r="N12">
-        <v>1.001143036846842</v>
+        <v>1.014548586845552</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9622997116082412</v>
+        <v>1.02529008034386</v>
       </c>
       <c r="D13">
-        <v>0.9898168457320855</v>
+        <v>1.028407569225745</v>
       </c>
       <c r="E13">
-        <v>0.9783030352559758</v>
+        <v>1.034785653837752</v>
       </c>
       <c r="F13">
-        <v>0.9742035621004956</v>
+        <v>1.043680613766272</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032240679642026</v>
+        <v>1.029446417919955</v>
       </c>
       <c r="J13">
-        <v>0.9936911651528724</v>
+        <v>1.031996613050448</v>
       </c>
       <c r="K13">
-        <v>1.005097074807327</v>
+        <v>1.032038683427331</v>
       </c>
       <c r="L13">
-        <v>0.9938125874283623</v>
+        <v>1.03839264691303</v>
       </c>
       <c r="M13">
-        <v>0.9897964902311044</v>
+        <v>1.047254511847671</v>
       </c>
       <c r="N13">
-        <v>1.001226938560381</v>
+        <v>1.014563668678382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9634704094304396</v>
+        <v>1.025497297427681</v>
       </c>
       <c r="D14">
-        <v>0.9906255828032509</v>
+        <v>1.028553934551856</v>
       </c>
       <c r="E14">
-        <v>0.9793452615047246</v>
+        <v>1.034982075066743</v>
       </c>
       <c r="F14">
-        <v>0.9754582338804137</v>
+        <v>1.043920889811117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032506726818847</v>
+        <v>1.029479601255452</v>
       </c>
       <c r="J14">
-        <v>0.9944839384035495</v>
+        <v>1.032141807161816</v>
       </c>
       <c r="K14">
-        <v>1.005743683213818</v>
+        <v>1.032152614959306</v>
       </c>
       <c r="L14">
-        <v>0.9946849947253691</v>
+        <v>1.038556681361688</v>
       </c>
       <c r="M14">
-        <v>0.9908759019313865</v>
+        <v>1.047462564040202</v>
       </c>
       <c r="N14">
-        <v>1.001500766004858</v>
+        <v>1.014613070966303</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9641882823060132</v>
+        <v>1.025624960211923</v>
       </c>
       <c r="D15">
-        <v>0.9911216629332453</v>
+        <v>1.028644101088599</v>
       </c>
       <c r="E15">
-        <v>0.9799845694731667</v>
+        <v>1.035103096667347</v>
       </c>
       <c r="F15">
-        <v>0.9762278331549142</v>
+        <v>1.044068941427383</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03266961803013</v>
+        <v>1.029500007517699</v>
       </c>
       <c r="J15">
-        <v>0.9949700359357693</v>
+        <v>1.032231244378774</v>
       </c>
       <c r="K15">
-        <v>1.006140105731829</v>
+        <v>1.032222782270115</v>
       </c>
       <c r="L15">
-        <v>0.9952199934202145</v>
+        <v>1.038657734426886</v>
       </c>
       <c r="M15">
-        <v>0.9915379173581755</v>
+        <v>1.047590748956562</v>
       </c>
       <c r="N15">
-        <v>1.001668658992845</v>
+        <v>1.014643498288593</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9683156232526285</v>
+        <v>1.026367854424411</v>
       </c>
       <c r="D16">
-        <v>0.9939761540696367</v>
+        <v>1.029168696556438</v>
       </c>
       <c r="E16">
-        <v>0.9836633824057703</v>
+        <v>1.035807496160936</v>
       </c>
       <c r="F16">
-        <v>0.9806560935799989</v>
+        <v>1.044930814898869</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033602311085746</v>
+        <v>1.029618184164067</v>
       </c>
       <c r="J16">
-        <v>0.9977642651975626</v>
+        <v>1.032751477931404</v>
       </c>
       <c r="K16">
-        <v>1.008418029029468</v>
+        <v>1.032630734055608</v>
       </c>
       <c r="L16">
-        <v>0.9982964339335655</v>
+        <v>1.039245694955223</v>
       </c>
       <c r="M16">
-        <v>0.9953458836733559</v>
+        <v>1.048336798119526</v>
       </c>
       <c r="N16">
-        <v>1.002633635463889</v>
+        <v>1.014820429920588</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9708611734637813</v>
+        <v>1.026833714979407</v>
       </c>
       <c r="D17">
-        <v>0.9957385803767511</v>
+        <v>1.02949757468987</v>
       </c>
       <c r="E17">
-        <v>0.9859350166335157</v>
+        <v>1.036249350270608</v>
       </c>
       <c r="F17">
-        <v>0.9833903160335644</v>
+        <v>1.045471579117424</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034174122807122</v>
+        <v>1.029691787975767</v>
       </c>
       <c r="J17">
-        <v>0.9994870744615095</v>
+        <v>1.033077517531398</v>
       </c>
       <c r="K17">
-        <v>1.009821742566383</v>
+        <v>1.032886233819088</v>
       </c>
       <c r="L17">
-        <v>1.000194233644892</v>
+        <v>1.039614321828006</v>
       </c>
       <c r="M17">
-        <v>0.9976959786500172</v>
+        <v>1.048804739744061</v>
       </c>
       <c r="N17">
-        <v>1.003228483626242</v>
+        <v>1.014931266354317</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9723308668357084</v>
+        <v>1.02710539489647</v>
       </c>
       <c r="D18">
-        <v>0.9967567688625871</v>
+        <v>1.029689336690514</v>
       </c>
       <c r="E18">
-        <v>0.9872475138713436</v>
+        <v>1.036507077987905</v>
       </c>
       <c r="F18">
-        <v>0.9849700450888774</v>
+        <v>1.04578704691322</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034503002507053</v>
+        <v>1.029734530610277</v>
       </c>
       <c r="J18">
-        <v>1.000481532488609</v>
+        <v>1.033267587187261</v>
       </c>
       <c r="K18">
-        <v>1.010631720521423</v>
+        <v>1.033035119506988</v>
       </c>
       <c r="L18">
-        <v>1.001290063464673</v>
+        <v>1.039829269472904</v>
       </c>
       <c r="M18">
-        <v>0.9990533584905287</v>
+        <v>1.049077670275902</v>
       </c>
       <c r="N18">
-        <v>1.00357180144472</v>
+        <v>1.014995862127404</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9728294874415803</v>
+        <v>1.027198022551414</v>
       </c>
       <c r="D19">
-        <v>0.9971023117513335</v>
+        <v>1.029754711227029</v>
       </c>
       <c r="E19">
-        <v>0.9876929618341678</v>
+        <v>1.036594956825406</v>
       </c>
       <c r="F19">
-        <v>0.9855061843118258</v>
+        <v>1.045894621710811</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03461436481767</v>
+        <v>1.029749072655601</v>
       </c>
       <c r="J19">
-        <v>1.000818881214384</v>
+        <v>1.033332378479104</v>
       </c>
       <c r="K19">
-        <v>1.010906438110471</v>
+        <v>1.033085861450475</v>
       </c>
       <c r="L19">
-        <v>1.001661862338541</v>
+        <v>1.039902549895027</v>
       </c>
       <c r="M19">
-        <v>0.9995139640745335</v>
+        <v>1.049170730592166</v>
       </c>
       <c r="N19">
-        <v>1.003688256384303</v>
+        <v>1.015017878597809</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9705896324892395</v>
+        <v>1.026783737604168</v>
       </c>
       <c r="D20">
-        <v>0.9955505100951242</v>
+        <v>1.029462296120338</v>
       </c>
       <c r="E20">
-        <v>0.9856925956853634</v>
+        <v>1.036201943346834</v>
       </c>
       <c r="F20">
-        <v>0.9830985341096413</v>
+        <v>1.0454135551711</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034113256336781</v>
+        <v>1.029683910557694</v>
       </c>
       <c r="J20">
-        <v>0.9993033197999417</v>
+        <v>1.033042547308576</v>
       </c>
       <c r="K20">
-        <v>1.00967205225071</v>
+        <v>1.032858835911069</v>
       </c>
       <c r="L20">
-        <v>0.9999917770544234</v>
+        <v>1.039574778511831</v>
       </c>
       <c r="M20">
-        <v>0.9974452316892338</v>
+        <v>1.048754535286895</v>
       </c>
       <c r="N20">
-        <v>1.00316504193076</v>
+        <v>1.014919380164387</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.963126386701779</v>
+        <v>1.025436279353364</v>
       </c>
       <c r="D21">
-        <v>0.9903878922025668</v>
+        <v>1.028510836523337</v>
       </c>
       <c r="E21">
-        <v>0.9790389467507145</v>
+        <v>1.034924233914324</v>
       </c>
       <c r="F21">
-        <v>0.9750894856728475</v>
+        <v>1.043850132507048</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03242859773249</v>
+        <v>1.029469837733185</v>
       </c>
       <c r="J21">
-        <v>0.994250979525892</v>
+        <v>1.032099055631354</v>
       </c>
       <c r="K21">
-        <v>1.005553686198224</v>
+        <v>1.03211907114463</v>
       </c>
       <c r="L21">
-        <v>0.9944286199905555</v>
+        <v>1.038508380219055</v>
       </c>
       <c r="M21">
-        <v>0.9905586796675462</v>
+        <v>1.047401298465067</v>
       </c>
       <c r="N21">
-        <v>1.001420302456201</v>
+        <v>1.014598525528163</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9582855164028112</v>
+        <v>1.024588622520228</v>
       </c>
       <c r="D22">
-        <v>0.9870463212312519</v>
+        <v>1.027912006715534</v>
       </c>
       <c r="E22">
-        <v>0.9747326239869046</v>
+        <v>1.03412088883345</v>
       </c>
       <c r="F22">
-        <v>0.9699049367279099</v>
+        <v>1.042867568879683</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031324764053906</v>
+        <v>1.029333535262801</v>
       </c>
       <c r="J22">
-        <v>0.9909724189222361</v>
+        <v>1.03150490014706</v>
       </c>
       <c r="K22">
-        <v>1.002878836037654</v>
+        <v>1.031652657110945</v>
       </c>
       <c r="L22">
-        <v>0.9908218189377397</v>
+        <v>1.037837284680817</v>
       </c>
       <c r="M22">
-        <v>0.9860971240872028</v>
+        <v>1.046550339950089</v>
       </c>
       <c r="N22">
-        <v>1.000287772800248</v>
+        <v>1.014396309004487</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.960866469145218</v>
+        <v>1.025038025573721</v>
       </c>
       <c r="D23">
-        <v>0.9888271904396274</v>
+        <v>1.028229515750875</v>
       </c>
       <c r="E23">
-        <v>0.9770276631951941</v>
+        <v>1.03454675777789</v>
       </c>
       <c r="F23">
-        <v>0.9726681482764379</v>
+        <v>1.043388405432755</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031914297910224</v>
+        <v>1.029405953609069</v>
       </c>
       <c r="J23">
-        <v>0.992720522139666</v>
+        <v>1.031819963271889</v>
       </c>
       <c r="K23">
-        <v>1.0043052518006</v>
+        <v>1.031900035029723</v>
       </c>
       <c r="L23">
-        <v>0.9927446393426861</v>
+        <v>1.03819310341677</v>
       </c>
       <c r="M23">
-        <v>0.9884753331065023</v>
+        <v>1.047001461844992</v>
       </c>
       <c r="N23">
-        <v>1.000891655398054</v>
+        <v>1.01450355367993</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9707123766458972</v>
+        <v>1.026806320379143</v>
       </c>
       <c r="D24">
-        <v>0.9956355211835685</v>
+        <v>1.029478237194662</v>
       </c>
       <c r="E24">
-        <v>0.9858021738245685</v>
+        <v>1.036223364489903</v>
       </c>
       <c r="F24">
-        <v>0.9832304243182881</v>
+        <v>1.045439773542865</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034140773610724</v>
+        <v>1.029687470608559</v>
       </c>
       <c r="J24">
-        <v>0.9993863827614142</v>
+        <v>1.033058349167535</v>
       </c>
       <c r="K24">
-        <v>1.009739717940737</v>
+        <v>1.032871216288298</v>
       </c>
       <c r="L24">
-        <v>1.000083292758732</v>
+        <v>1.039592646638782</v>
       </c>
       <c r="M24">
-        <v>0.9975585747124501</v>
+        <v>1.04877722055683</v>
       </c>
       <c r="N24">
-        <v>1.003193719744311</v>
+        <v>1.014924751186526</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9815512641389362</v>
+        <v>1.028856428135628</v>
       </c>
       <c r="D25">
-        <v>1.003154484857403</v>
+        <v>1.030924681192888</v>
       </c>
       <c r="E25">
-        <v>0.9954978636924237</v>
+        <v>1.038169046402508</v>
       </c>
       <c r="F25">
-        <v>0.9949002413474097</v>
+        <v>1.047822211597335</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036543214660116</v>
+        <v>1.030006733323757</v>
       </c>
       <c r="J25">
-        <v>1.006715862477678</v>
+        <v>1.034491363209332</v>
       </c>
       <c r="K25">
-        <v>1.015704028087396</v>
+        <v>1.033992611458355</v>
       </c>
       <c r="L25">
-        <v>1.008166473899594</v>
+        <v>1.041214149012088</v>
       </c>
       <c r="M25">
-        <v>1.007578243751417</v>
+        <v>1.050837431700428</v>
       </c>
       <c r="N25">
-        <v>1.005723133893244</v>
+        <v>1.015411440177789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030490150665257</v>
+        <v>0.9897804752067557</v>
       </c>
       <c r="D2">
-        <v>1.032076269318367</v>
+        <v>1.008877266148634</v>
       </c>
       <c r="E2">
-        <v>1.039721047873346</v>
+        <v>1.002885495046766</v>
       </c>
       <c r="F2">
-        <v>1.049724111409681</v>
+        <v>1.003793706708619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030255399101766</v>
+        <v>1.03832579636624</v>
       </c>
       <c r="J2">
-        <v>1.035631108068005</v>
+        <v>1.012271206986626</v>
       </c>
       <c r="K2">
-        <v>1.03488254408658</v>
+        <v>1.020214296577612</v>
       </c>
       <c r="L2">
-        <v>1.042505431779909</v>
+        <v>1.014304776186264</v>
       </c>
       <c r="M2">
-        <v>1.052480373809751</v>
+        <v>1.015200440986244</v>
       </c>
       <c r="N2">
-        <v>1.015797953245887</v>
+        <v>1.007638376107962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031675592545348</v>
+        <v>0.9955392114860598</v>
       </c>
       <c r="D3">
-        <v>1.032911225731452</v>
+        <v>1.012887985685383</v>
       </c>
       <c r="E3">
-        <v>1.040848051644135</v>
+        <v>1.008069427366719</v>
       </c>
       <c r="F3">
-        <v>1.051106086446118</v>
+        <v>1.010036428086771</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030432489720505</v>
+        <v>1.039548075610817</v>
       </c>
       <c r="J3">
-        <v>1.036456822177965</v>
+        <v>1.016152225217229</v>
       </c>
       <c r="K3">
-        <v>1.035526127037439</v>
+        <v>1.023358575921181</v>
       </c>
       <c r="L3">
-        <v>1.043441877737671</v>
+        <v>1.018600089126063</v>
       </c>
       <c r="M3">
-        <v>1.053673182614326</v>
+        <v>1.020542481560928</v>
       </c>
       <c r="N3">
-        <v>1.016077635605407</v>
+        <v>1.008975066572256</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032442305104613</v>
+        <v>0.9991726661762562</v>
       </c>
       <c r="D4">
-        <v>1.033450948351937</v>
+        <v>1.015420624515306</v>
       </c>
       <c r="E4">
-        <v>1.04157736297901</v>
+        <v>1.011346419392905</v>
       </c>
       <c r="F4">
-        <v>1.052000810570163</v>
+        <v>1.013984072316436</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0305454780581</v>
+        <v>1.040307247601149</v>
       </c>
       <c r="J4">
-        <v>1.036990271242839</v>
+        <v>1.018597558940385</v>
       </c>
       <c r="K4">
-        <v>1.035941376478102</v>
+        <v>1.025336431647812</v>
       </c>
       <c r="L4">
-        <v>1.044047304442812</v>
+        <v>1.021309805092331</v>
       </c>
       <c r="M4">
-        <v>1.054444973114209</v>
+        <v>1.023916601536318</v>
       </c>
       <c r="N4">
-        <v>1.016258166794103</v>
+        <v>1.009816607158092</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03276454983512</v>
+        <v>1.000678948079046</v>
       </c>
       <c r="D5">
-        <v>1.033677716486172</v>
+        <v>1.016470960647671</v>
       </c>
       <c r="E5">
-        <v>1.041883982381012</v>
+        <v>1.012706371259103</v>
       </c>
       <c r="F5">
-        <v>1.05237707317128</v>
+        <v>1.015622717301514</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030592595129303</v>
+        <v>1.040619028992972</v>
       </c>
       <c r="J5">
-        <v>1.037214332440553</v>
+        <v>1.019610434377675</v>
       </c>
       <c r="K5">
-        <v>1.036115662599569</v>
+        <v>1.026154857863003</v>
       </c>
       <c r="L5">
-        <v>1.044301703523165</v>
+        <v>1.022433006193695</v>
       </c>
       <c r="M5">
-        <v>1.054769427047745</v>
+        <v>1.025316210163522</v>
       </c>
       <c r="N5">
-        <v>1.016333956550886</v>
+        <v>1.010165007949467</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032818651437737</v>
+        <v>1.000930642851028</v>
       </c>
       <c r="D6">
-        <v>1.033715784168905</v>
+        <v>1.016646489690236</v>
       </c>
       <c r="E6">
-        <v>1.04193546616241</v>
+        <v>1.012933698466135</v>
       </c>
       <c r="F6">
-        <v>1.052440256456689</v>
+        <v>1.015896653662939</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030600483822878</v>
+        <v>1.040670952153092</v>
       </c>
       <c r="J6">
-        <v>1.037251941558214</v>
+        <v>1.019779630595172</v>
       </c>
       <c r="K6">
-        <v>1.036144909325174</v>
+        <v>1.026291523357553</v>
       </c>
       <c r="L6">
-        <v>1.044344411114732</v>
+        <v>1.022620680232449</v>
       </c>
       <c r="M6">
-        <v>1.05482390394946</v>
+        <v>1.025550128735554</v>
       </c>
       <c r="N6">
-        <v>1.016346675802291</v>
+        <v>1.01022319634488</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03244661127117</v>
+        <v>0.9991928753014677</v>
       </c>
       <c r="D7">
-        <v>1.033453978954086</v>
+        <v>1.0154347149249</v>
       </c>
       <c r="E7">
-        <v>1.041581459974169</v>
+        <v>1.011364659616131</v>
       </c>
       <c r="F7">
-        <v>1.052005837732729</v>
+        <v>1.014006048948523</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030546109144423</v>
+        <v>1.040311442334781</v>
       </c>
       <c r="J7">
-        <v>1.03699326594717</v>
+        <v>1.018611151710533</v>
       </c>
       <c r="K7">
-        <v>1.035943706415942</v>
+        <v>1.025347418181206</v>
       </c>
       <c r="L7">
-        <v>1.044050704214701</v>
+        <v>1.021324875182624</v>
       </c>
       <c r="M7">
-        <v>1.054449308507797</v>
+        <v>1.023935376194317</v>
       </c>
       <c r="N7">
-        <v>1.01625917991498</v>
+        <v>1.009821283381704</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030890849470345</v>
+        <v>0.9917465134171639</v>
       </c>
       <c r="D8">
-        <v>1.032358560884742</v>
+        <v>1.010246031309391</v>
       </c>
       <c r="E8">
-        <v>1.040101911596124</v>
+        <v>1.004653960443623</v>
       </c>
       <c r="F8">
-        <v>1.050191055498615</v>
+        <v>1.005923119939843</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030315579285295</v>
+        <v>1.03874557752156</v>
       </c>
       <c r="J8">
-        <v>1.035910337248063</v>
+        <v>1.013596871141782</v>
       </c>
       <c r="K8">
-        <v>1.035100293063721</v>
+        <v>1.021288979433628</v>
       </c>
       <c r="L8">
-        <v>1.042822015812582</v>
+        <v>1.015771257769116</v>
       </c>
       <c r="M8">
-        <v>1.052883497879407</v>
+        <v>1.017023452135391</v>
       </c>
       <c r="N8">
-        <v>1.015892564885362</v>
+        <v>1.008095094165783</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028146646806978</v>
+        <v>0.9778653481966477</v>
       </c>
       <c r="D9">
-        <v>1.030424062362268</v>
+        <v>1.000594984583784</v>
       </c>
       <c r="E9">
-        <v>1.037495186451022</v>
+        <v>0.9921963568525776</v>
       </c>
       <c r="F9">
-        <v>1.046996854451491</v>
+        <v>0.9909264311586238</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029897089124129</v>
+        <v>1.035732634208184</v>
       </c>
       <c r="J9">
-        <v>1.033995572418792</v>
+        <v>1.004224702184235</v>
       </c>
       <c r="K9">
-        <v>1.033604937502058</v>
+        <v>1.013678415948311</v>
       </c>
       <c r="L9">
-        <v>1.040652894440398</v>
+        <v>1.00541732440998</v>
       </c>
       <c r="M9">
-        <v>1.05012397149613</v>
+        <v>1.004168456334236</v>
       </c>
       <c r="N9">
-        <v>1.015243145251388</v>
+        <v>1.004863705283786</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026315201053901</v>
+        <v>0.9680258705852361</v>
       </c>
       <c r="D10">
-        <v>1.029131521072317</v>
+        <v>0.9937756328589089</v>
       </c>
       <c r="E10">
-        <v>1.035757562577315</v>
+        <v>0.9834049406354205</v>
       </c>
       <c r="F10">
-        <v>1.044869709922306</v>
+        <v>0.9803450160373219</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02960984061626</v>
+        <v>1.03353705310146</v>
       </c>
       <c r="J10">
-        <v>1.032714618249435</v>
+        <v>0.9975681345937029</v>
       </c>
       <c r="K10">
-        <v>1.0326018407536</v>
+        <v>1.008258187009756</v>
       </c>
       <c r="L10">
-        <v>1.039204027575725</v>
+        <v>0.9980804308662248</v>
       </c>
       <c r="M10">
-        <v>1.048283914543442</v>
+        <v>0.9950784530110282</v>
       </c>
       <c r="N10">
-        <v>1.014807897123373</v>
+        <v>1.002565909818429</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025521666764405</v>
+        <v>0.9636076408139546</v>
       </c>
       <c r="D11">
-        <v>1.028571146679589</v>
+        <v>0.9907204059571715</v>
       </c>
       <c r="E11">
-        <v>1.035005176092133</v>
+        <v>0.9794674615237827</v>
       </c>
       <c r="F11">
-        <v>1.043949149852537</v>
+        <v>0.9756053396937618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02948349877982</v>
+        <v>1.032537880517145</v>
       </c>
       <c r="J11">
-        <v>1.03215888052797</v>
+        <v>0.9945768646323039</v>
       </c>
       <c r="K11">
-        <v>1.032166010490619</v>
+        <v>1.005819469590411</v>
       </c>
       <c r="L11">
-        <v>1.038575971547479</v>
+        <v>0.9947872649782517</v>
       </c>
       <c r="M11">
-        <v>1.047487032595368</v>
+        <v>0.9910024483656273</v>
       </c>
       <c r="N11">
-        <v>1.014618879692115</v>
+        <v>1.001532862189052</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02522683414516</v>
+        <v>0.9619410354418968</v>
       </c>
       <c r="D12">
-        <v>1.02836289341855</v>
+        <v>0.9895691325337925</v>
       </c>
       <c r="E12">
-        <v>1.034725706690316</v>
+        <v>0.977983806373431</v>
       </c>
       <c r="F12">
-        <v>1.043607286095838</v>
+        <v>0.9738192518403355</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029436274884896</v>
+        <v>1.032159069400278</v>
       </c>
       <c r="J12">
-        <v>1.031952291620383</v>
+        <v>0.9934482647211383</v>
       </c>
       <c r="K12">
-        <v>1.032003900051467</v>
+        <v>1.004898937627317</v>
       </c>
       <c r="L12">
-        <v>1.038342578538069</v>
+        <v>0.9935453166554531</v>
       </c>
       <c r="M12">
-        <v>1.047191013804892</v>
+        <v>0.9894658302669128</v>
       </c>
       <c r="N12">
-        <v>1.014548586845552</v>
+        <v>1.001143036846842</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02529008034386</v>
+        <v>0.962299711608242</v>
       </c>
       <c r="D13">
-        <v>1.028407569225745</v>
+        <v>0.9898168457320863</v>
       </c>
       <c r="E13">
-        <v>1.034785653837752</v>
+        <v>0.9783030352559763</v>
       </c>
       <c r="F13">
-        <v>1.043680613766272</v>
+        <v>0.9742035621004962</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029446417919955</v>
+        <v>1.032240679642026</v>
       </c>
       <c r="J13">
-        <v>1.031996613050448</v>
+        <v>0.993691165152873</v>
       </c>
       <c r="K13">
-        <v>1.032038683427331</v>
+        <v>1.005097074807328</v>
       </c>
       <c r="L13">
-        <v>1.03839264691303</v>
+        <v>0.9938125874283629</v>
       </c>
       <c r="M13">
-        <v>1.047254511847671</v>
+        <v>0.9897964902311051</v>
       </c>
       <c r="N13">
-        <v>1.014563668678382</v>
+        <v>1.001226938560381</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025497297427681</v>
+        <v>0.9634704094304404</v>
       </c>
       <c r="D14">
-        <v>1.028553934551856</v>
+        <v>0.9906255828032512</v>
       </c>
       <c r="E14">
-        <v>1.034982075066743</v>
+        <v>0.9793452615047253</v>
       </c>
       <c r="F14">
-        <v>1.043920889811117</v>
+        <v>0.9754582338804149</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029479601255452</v>
+        <v>1.032506726818848</v>
       </c>
       <c r="J14">
-        <v>1.032141807161816</v>
+        <v>0.9944839384035502</v>
       </c>
       <c r="K14">
-        <v>1.032152614959306</v>
+        <v>1.005743683213819</v>
       </c>
       <c r="L14">
-        <v>1.038556681361688</v>
+        <v>0.9946849947253699</v>
       </c>
       <c r="M14">
-        <v>1.047462564040202</v>
+        <v>0.9908759019313876</v>
       </c>
       <c r="N14">
-        <v>1.014613070966303</v>
+        <v>1.001500766004859</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025624960211923</v>
+        <v>0.9641882823060136</v>
       </c>
       <c r="D15">
-        <v>1.028644101088599</v>
+        <v>0.9911216629332459</v>
       </c>
       <c r="E15">
-        <v>1.035103096667347</v>
+        <v>0.9799845694731671</v>
       </c>
       <c r="F15">
-        <v>1.044068941427383</v>
+        <v>0.9762278331549147</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029500007517699</v>
+        <v>1.03266961803013</v>
       </c>
       <c r="J15">
-        <v>1.032231244378774</v>
+        <v>0.9949700359357697</v>
       </c>
       <c r="K15">
-        <v>1.032222782270115</v>
+        <v>1.006140105731829</v>
       </c>
       <c r="L15">
-        <v>1.038657734426886</v>
+        <v>0.9952199934202149</v>
       </c>
       <c r="M15">
-        <v>1.047590748956562</v>
+        <v>0.9915379173581759</v>
       </c>
       <c r="N15">
-        <v>1.014643498288593</v>
+        <v>1.001668658992845</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026367854424411</v>
+        <v>0.9683156232526293</v>
       </c>
       <c r="D16">
-        <v>1.029168696556438</v>
+        <v>0.9939761540696372</v>
       </c>
       <c r="E16">
-        <v>1.035807496160936</v>
+        <v>0.983663382405771</v>
       </c>
       <c r="F16">
-        <v>1.044930814898869</v>
+        <v>0.9806560935799997</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029618184164067</v>
+        <v>1.033602311085746</v>
       </c>
       <c r="J16">
-        <v>1.032751477931404</v>
+        <v>0.9977642651975632</v>
       </c>
       <c r="K16">
-        <v>1.032630734055608</v>
+        <v>1.008418029029468</v>
       </c>
       <c r="L16">
-        <v>1.039245694955223</v>
+        <v>0.9982964339335664</v>
       </c>
       <c r="M16">
-        <v>1.048336798119526</v>
+        <v>0.9953458836733566</v>
       </c>
       <c r="N16">
-        <v>1.014820429920588</v>
+        <v>1.002633635463889</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026833714979407</v>
+        <v>0.9708611734637814</v>
       </c>
       <c r="D17">
-        <v>1.02949757468987</v>
+        <v>0.9957385803767513</v>
       </c>
       <c r="E17">
-        <v>1.036249350270608</v>
+        <v>0.9859350166335155</v>
       </c>
       <c r="F17">
-        <v>1.045471579117424</v>
+        <v>0.9833903160335645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029691787975767</v>
+        <v>1.034174122807122</v>
       </c>
       <c r="J17">
-        <v>1.033077517531398</v>
+        <v>0.9994870744615095</v>
       </c>
       <c r="K17">
-        <v>1.032886233819088</v>
+        <v>1.009821742566383</v>
       </c>
       <c r="L17">
-        <v>1.039614321828006</v>
+        <v>1.000194233644892</v>
       </c>
       <c r="M17">
-        <v>1.048804739744061</v>
+        <v>0.9976959786500172</v>
       </c>
       <c r="N17">
-        <v>1.014931266354317</v>
+        <v>1.003228483626242</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02710539489647</v>
+        <v>0.9723308668357075</v>
       </c>
       <c r="D18">
-        <v>1.029689336690514</v>
+        <v>0.9967567688625862</v>
       </c>
       <c r="E18">
-        <v>1.036507077987905</v>
+        <v>0.9872475138713426</v>
       </c>
       <c r="F18">
-        <v>1.04578704691322</v>
+        <v>0.984970045088877</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029734530610277</v>
+        <v>1.034503002507053</v>
       </c>
       <c r="J18">
-        <v>1.033267587187261</v>
+        <v>1.000481532488608</v>
       </c>
       <c r="K18">
-        <v>1.033035119506988</v>
+        <v>1.010631720521422</v>
       </c>
       <c r="L18">
-        <v>1.039829269472904</v>
+        <v>1.001290063464672</v>
       </c>
       <c r="M18">
-        <v>1.049077670275902</v>
+        <v>0.9990533584905281</v>
       </c>
       <c r="N18">
-        <v>1.014995862127404</v>
+        <v>1.00357180144472</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027198022551414</v>
+        <v>0.9728294874415793</v>
       </c>
       <c r="D19">
-        <v>1.029754711227029</v>
+        <v>0.9971023117513328</v>
       </c>
       <c r="E19">
-        <v>1.036594956825406</v>
+        <v>0.987692961834167</v>
       </c>
       <c r="F19">
-        <v>1.045894621710811</v>
+        <v>0.9855061843118246</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029749072655601</v>
+        <v>1.03461436481767</v>
       </c>
       <c r="J19">
-        <v>1.033332378479104</v>
+        <v>1.000818881214383</v>
       </c>
       <c r="K19">
-        <v>1.033085861450475</v>
+        <v>1.01090643811047</v>
       </c>
       <c r="L19">
-        <v>1.039902549895027</v>
+        <v>1.00166186233854</v>
       </c>
       <c r="M19">
-        <v>1.049170730592166</v>
+        <v>0.9995139640745324</v>
       </c>
       <c r="N19">
-        <v>1.015017878597809</v>
+        <v>1.003688256384303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026783737604168</v>
+        <v>0.9705896324892401</v>
       </c>
       <c r="D20">
-        <v>1.029462296120338</v>
+        <v>0.9955505100951247</v>
       </c>
       <c r="E20">
-        <v>1.036201943346834</v>
+        <v>0.9856925956853643</v>
       </c>
       <c r="F20">
-        <v>1.0454135551711</v>
+        <v>0.9830985341096422</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029683910557694</v>
+        <v>1.034113256336781</v>
       </c>
       <c r="J20">
-        <v>1.033042547308576</v>
+        <v>0.9993033197999422</v>
       </c>
       <c r="K20">
-        <v>1.032858835911069</v>
+        <v>1.009672052250711</v>
       </c>
       <c r="L20">
-        <v>1.039574778511831</v>
+        <v>0.9999917770544241</v>
       </c>
       <c r="M20">
-        <v>1.048754535286895</v>
+        <v>0.9974452316892346</v>
       </c>
       <c r="N20">
-        <v>1.014919380164387</v>
+        <v>1.003165041930761</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025436279353364</v>
+        <v>0.9631263867017791</v>
       </c>
       <c r="D21">
-        <v>1.028510836523337</v>
+        <v>0.9903878922025671</v>
       </c>
       <c r="E21">
-        <v>1.034924233914324</v>
+        <v>0.9790389467507145</v>
       </c>
       <c r="F21">
-        <v>1.043850132507048</v>
+        <v>0.9750894856728477</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029469837733185</v>
+        <v>1.03242859773249</v>
       </c>
       <c r="J21">
-        <v>1.032099055631354</v>
+        <v>0.9942509795258924</v>
       </c>
       <c r="K21">
-        <v>1.03211907114463</v>
+        <v>1.005553686198224</v>
       </c>
       <c r="L21">
-        <v>1.038508380219055</v>
+        <v>0.9944286199905558</v>
       </c>
       <c r="M21">
-        <v>1.047401298465067</v>
+        <v>0.9905586796675464</v>
       </c>
       <c r="N21">
-        <v>1.014598525528163</v>
+        <v>1.001420302456201</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024588622520228</v>
+        <v>0.9582855164028118</v>
       </c>
       <c r="D22">
-        <v>1.027912006715534</v>
+        <v>0.9870463212312525</v>
       </c>
       <c r="E22">
-        <v>1.03412088883345</v>
+        <v>0.9747326239869053</v>
       </c>
       <c r="F22">
-        <v>1.042867568879683</v>
+        <v>0.9699049367279103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029333535262801</v>
+        <v>1.031324764053906</v>
       </c>
       <c r="J22">
-        <v>1.03150490014706</v>
+        <v>0.9909724189222364</v>
       </c>
       <c r="K22">
-        <v>1.031652657110945</v>
+        <v>1.002878836037654</v>
       </c>
       <c r="L22">
-        <v>1.037837284680817</v>
+        <v>0.99082181893774</v>
       </c>
       <c r="M22">
-        <v>1.046550339950089</v>
+        <v>0.9860971240872034</v>
       </c>
       <c r="N22">
-        <v>1.014396309004487</v>
+        <v>1.000287772800248</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025038025573721</v>
+        <v>0.9608664691452167</v>
       </c>
       <c r="D23">
-        <v>1.028229515750875</v>
+        <v>0.9888271904396262</v>
       </c>
       <c r="E23">
-        <v>1.03454675777789</v>
+        <v>0.977027663195193</v>
       </c>
       <c r="F23">
-        <v>1.043388405432755</v>
+        <v>0.9726681482764367</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029405953609069</v>
+        <v>1.031914297910224</v>
       </c>
       <c r="J23">
-        <v>1.031819963271889</v>
+        <v>0.9927205221396646</v>
       </c>
       <c r="K23">
-        <v>1.031900035029723</v>
+        <v>1.004305251800599</v>
       </c>
       <c r="L23">
-        <v>1.03819310341677</v>
+        <v>0.9927446393426849</v>
       </c>
       <c r="M23">
-        <v>1.047001461844992</v>
+        <v>0.988475333106501</v>
       </c>
       <c r="N23">
-        <v>1.01450355367993</v>
+        <v>1.000891655398053</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026806320379143</v>
+        <v>0.9707123766458969</v>
       </c>
       <c r="D24">
-        <v>1.029478237194662</v>
+        <v>0.995635521183568</v>
       </c>
       <c r="E24">
-        <v>1.036223364489903</v>
+        <v>0.9858021738245684</v>
       </c>
       <c r="F24">
-        <v>1.045439773542865</v>
+        <v>0.9832304243182877</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029687470608559</v>
+        <v>1.034140773610724</v>
       </c>
       <c r="J24">
-        <v>1.033058349167535</v>
+        <v>0.999386382761414</v>
       </c>
       <c r="K24">
-        <v>1.032871216288298</v>
+        <v>1.009739717940737</v>
       </c>
       <c r="L24">
-        <v>1.039592646638782</v>
+        <v>1.000083292758732</v>
       </c>
       <c r="M24">
-        <v>1.04877722055683</v>
+        <v>0.9975585747124497</v>
       </c>
       <c r="N24">
-        <v>1.014924751186526</v>
+        <v>1.00319371974431</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028856428135628</v>
+        <v>0.9815512641389358</v>
       </c>
       <c r="D25">
-        <v>1.030924681192888</v>
+        <v>1.003154484857402</v>
       </c>
       <c r="E25">
-        <v>1.038169046402508</v>
+        <v>0.9954978636924231</v>
       </c>
       <c r="F25">
-        <v>1.047822211597335</v>
+        <v>0.9949002413474091</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030006733323757</v>
+        <v>1.036543214660115</v>
       </c>
       <c r="J25">
-        <v>1.034491363209332</v>
+        <v>1.006715862477677</v>
       </c>
       <c r="K25">
-        <v>1.033992611458355</v>
+        <v>1.015704028087396</v>
       </c>
       <c r="L25">
-        <v>1.041214149012088</v>
+        <v>1.008166473899594</v>
       </c>
       <c r="M25">
-        <v>1.050837431700428</v>
+        <v>1.007578243751417</v>
       </c>
       <c r="N25">
-        <v>1.015411440177789</v>
+        <v>1.005723133893244</v>
       </c>
     </row>
   </sheetData>
